--- a/dakat_geometrivariasjoner.xlsx
+++ b/dakat_geometrivariasjoner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\leveranser\adhocanalyser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC401E8-5C52-4AA4-AF66-52499D6FCB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DECABED-774A-406F-9031-26B63549896E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1515" yWindow="-21690" windowWidth="35040" windowHeight="20805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1878,7 +1878,8 @@
   <dimension ref="A1:G469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F482" sqref="F482"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
